--- a/data/hotels_by_city/Miami/Miami_shard_476.xlsx
+++ b/data/hotels_by_city/Miami/Miami_shard_476.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,469 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>11/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r580126875-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>34438</t>
+  </si>
+  <si>
+    <t>2493674</t>
+  </si>
+  <si>
+    <t>580126875</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Full of ants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me and my boyfriend stayed here for two nights. The first evening we found lots of ants in the bathroom - on the floor, in the window, in the bathtub and so on. We also found a used q-tip on the floor. We told the receptionist the day after, and she promised that our room will be cleaned, while we went out for the day. When we got back, the bathroom was still full of ants. Disgusting! </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r557437508-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>557437508</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>The place is a dump !!!</t>
+  </si>
+  <si>
+    <t>The pictures shown are not the hotel I stayed.in  Maybe 40 years ago !!!  This hotel needs a complete renovation !!!!no carpet - no working lamps - pillows hard as rockno bed spread- blanket &amp; sheet only- no clock- no phone A  shower that would trickle water then no water !!!Could not even take a shower!!!!room smelled from age  window air-conditioner   one speed  full blast  *** refused to refund any money****The other guest that I observed appear to live there not traveling 20 yrs of traveling for business never seen anything like it This  hotel should not be on travel sites Save  your money dont be ripped off like the rest of us!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The pictures shown are not the hotel I stayed.in  Maybe 40 years ago !!!  This hotel needs a complete renovation !!!!no carpet - no working lamps - pillows hard as rockno bed spread- blanket &amp; sheet only- no clock- no phone A  shower that would trickle water then no water !!!Could not even take a shower!!!!room smelled from age  window air-conditioner   one speed  full blast  *** refused to refund any money****The other guest that I observed appear to live there not traveling 20 yrs of traveling for business never seen anything like it This  hotel should not be on travel sites Save  your money dont be ripped off like the rest of us!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r478522249-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>478522249</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Dont waist your money</t>
+  </si>
+  <si>
+    <t>The name of the hotel sounds great, but when you get there its a dumb... When you walk in the office there is a sign said "NO money back, no acception" that should give you a warning, no hot water, we found some bugs in the room, the shower is a joke, not enough parking... AVOID</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r459218184-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>459218184</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Nasty, dirty hooker motel</t>
+  </si>
+  <si>
+    <t>If you are considering spending a night in a motel in North Miami, I urge you to go somewhere else. Arriving late it was dark and we did not pick up on the decrepid cars outside,  and were too tired to notice on the prison style security of the place. It was 100 dollars. For that you got a dirty poorly maintained room. Only half the lamps and sockets worked. The wi-fi did not work and  staff could not help us. When we are finally about to fall asleep, they start having really loud sex in the room next door. My daughter wore earplugs but could still hear it. The theatrical nature of the sounds makes me assume that it was a professional. And indeed, next morning we noticed a young female in a miniskirt exiting of the other rooms and drove off in one of the rusty cars outside. I am just happy we did not catch bedbugsMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>If you are considering spending a night in a motel in North Miami, I urge you to go somewhere else. Arriving late it was dark and we did not pick up on the decrepid cars outside,  and were too tired to notice on the prison style security of the place. It was 100 dollars. For that you got a dirty poorly maintained room. Only half the lamps and sockets worked. The wi-fi did not work and  staff could not help us. When we are finally about to fall asleep, they start having really loud sex in the room next door. My daughter wore earplugs but could still hear it. The theatrical nature of the sounds makes me assume that it was a professional. And indeed, next morning we noticed a young female in a miniskirt exiting of the other rooms and drove off in one of the rusty cars outside. I am just happy we did not catch bedbugsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r456031369-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>456031369</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>TERRIBLE PLACE</t>
+  </si>
+  <si>
+    <t>We stayed at sun and surf motel for 2 nights and we were 3 people. At our room there were just 2 towels,2 shampoo and 1 piece of soap. We could not connect to the wi fi in our room, at 6pm lady at the front desk told me that NEXT morning she will ask a maintenance to fix it , but for the rest of our stay it still was no wifi. We had 2 keys to our room for 3 people and one of them wasn't working, I went to front desk and the same lady told me that everything is fine and it supposed to work and did nothing. For 2 days we were using 1 key because she didn't want to change the broken one ! At the morning we want to have a breakfast which is included in price and the same lady told us that breakfast was canceled because of broken coffee machine, I don't know that is the reason why they don't serve breakfast because of coffee machine, but because of that we were have to go and eat something out of motel and spend extra money for it ! The next day there was also no breakfast! When I went to the same lady and ask some extra shampoo she gave 2 of them for 3 of us ! When my wife went there with the same request she gave her 1...We stayed at sun and surf motel for 2 nights and we were 3 people. At our room there were just 2 towels,2 shampoo and 1 piece of soap. We could not connect to the wi fi in our room, at 6pm lady at the front desk told me that NEXT morning she will ask a maintenance to fix it , but for the rest of our stay it still was no wifi. We had 2 keys to our room for 3 people and one of them wasn't working, I went to front desk and the same lady told me that everything is fine and it supposed to work and did nothing. For 2 days we were using 1 key because she didn't want to change the broken one ! At the morning we want to have a breakfast which is included in price and the same lady told us that breakfast was canceled because of broken coffee machine, I don't know that is the reason why they don't serve breakfast because of coffee machine, but because of that we were have to go and eat something out of motel and spend extra money for it ! The next day there was also no breakfast! When I went to the same lady and ask some extra shampoo she gave 2 of them for 3 of us ! When my wife went there with the same request she gave her 1 peace of soap because they run out of shampoo! The night before our check out I went to talk about refund money because of no breakfast and wifi she told me to come at the morning because owner was not there. At the morning while doing check out they told me that they can do nothing because owner is still not in a hotel . I repeat my question and then they suggest me to wait 3 hours for the owner to arrive! I told them  that I don't have 3 hour, when I suggested them to call him they said that its impossible. They were not even going to give the phone number or email! I was standing there and asking for business card for 2 minutes.So I left and told them that I will call in about 4 hours and when I did the same lady told me that owner is not going to talk to me and I have to write to booking.com about the refunding money . So -  no wifi , no shampoo and no breakfast! Also we found couple cockroaches, walls and mattresses were really dirty.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>We stayed at sun and surf motel for 2 nights and we were 3 people. At our room there were just 2 towels,2 shampoo and 1 piece of soap. We could not connect to the wi fi in our room, at 6pm lady at the front desk told me that NEXT morning she will ask a maintenance to fix it , but for the rest of our stay it still was no wifi. We had 2 keys to our room for 3 people and one of them wasn't working, I went to front desk and the same lady told me that everything is fine and it supposed to work and did nothing. For 2 days we were using 1 key because she didn't want to change the broken one ! At the morning we want to have a breakfast which is included in price and the same lady told us that breakfast was canceled because of broken coffee machine, I don't know that is the reason why they don't serve breakfast because of coffee machine, but because of that we were have to go and eat something out of motel and spend extra money for it ! The next day there was also no breakfast! When I went to the same lady and ask some extra shampoo she gave 2 of them for 3 of us ! When my wife went there with the same request she gave her 1...We stayed at sun and surf motel for 2 nights and we were 3 people. At our room there were just 2 towels,2 shampoo and 1 piece of soap. We could not connect to the wi fi in our room, at 6pm lady at the front desk told me that NEXT morning she will ask a maintenance to fix it , but for the rest of our stay it still was no wifi. We had 2 keys to our room for 3 people and one of them wasn't working, I went to front desk and the same lady told me that everything is fine and it supposed to work and did nothing. For 2 days we were using 1 key because she didn't want to change the broken one ! At the morning we want to have a breakfast which is included in price and the same lady told us that breakfast was canceled because of broken coffee machine, I don't know that is the reason why they don't serve breakfast because of coffee machine, but because of that we were have to go and eat something out of motel and spend extra money for it ! The next day there was also no breakfast! When I went to the same lady and ask some extra shampoo she gave 2 of them for 3 of us ! When my wife went there with the same request she gave her 1 peace of soap because they run out of shampoo! The night before our check out I went to talk about refund money because of no breakfast and wifi she told me to come at the morning because owner was not there. At the morning while doing check out they told me that they can do nothing because owner is still not in a hotel . I repeat my question and then they suggest me to wait 3 hours for the owner to arrive! I told them  that I don't have 3 hour, when I suggested them to call him they said that its impossible. They were not even going to give the phone number or email! I was standing there and asking for business card for 2 minutes.So I left and told them that I will call in about 4 hours and when I did the same lady told me that owner is not going to talk to me and I have to write to booking.com about the refunding money . So -  no wifi , no shampoo and no breakfast! Also we found couple cockroaches, walls and mattresses were really dirty.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r380269395-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>380269395</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>This is a good place  for business stays</t>
+  </si>
+  <si>
+    <t>I rented a  room for sime  clients of mine that had to be close to downtown Miami, bur also wanted an area with restaurants and without the high price that downtown hotels or beach front hotels charge these days.The Sun and Surf was a exactly  what they  were looking for. Stayed for 3 nights and really loved it.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r350270544-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>350270544</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Overpriced but nice</t>
+  </si>
+  <si>
+    <t>It is being renovated so choose a room that has been renovated and at the back so there will be less noise from the street. The staff is very nice and accommodating. There is a fridge and a microwave. No swimming pool but who cares, the beach is not that far. Great Colombian restaurant across the street. The towels also need renovation. It is overpriced but we are in the high season in Miami. It is also a motel rented by the hour.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r317467915-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>317467915</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>Dirty, bugs and insects, poor service... Go somewhere else !</t>
+  </si>
+  <si>
+    <t>No toilet paper in the bathroom, bed sheets with hair and spots on pillows, insects and spiders in the corners of the room... I won't wait for 11am to check out...except internet wifi working percectly, I don't see what s good here. Beware.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r281965412-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>281965412</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Well worth the rates compared to surrounding area. Close to beaches</t>
+  </si>
+  <si>
+    <t>I need to stay in North Miami periodically for work in the area. This was an excellent choice for convenience and surrounding areas.It's a throwback to the 50's "Old Florida" style, but brought up to date.But less expensive than other options in the area but there's a lot for the money. The staff was were all extremely helpful and ready to improve my stay when necessary.My room had been recently redone. Good surroundings.Also free continental style breakfast!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r271801524-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>271801524</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>A new totally clean, luxury and comfortable experience</t>
+  </si>
+  <si>
+    <t>I was depressed having just buried my only relative in the world when I decided I did not want to go back to the apartment I shared with my now deceased brother. So I wondered along Biscayne Boulevard and found the Sun'nSurf Knights Inn by happenstance. Remember the film classic "The Man who came to Dinner" (who stayed and stayed and stayed?) Well, that was me: I only planned on staying a couple of days until I collected my senses, but having found this space: all rooms have been recently remodeled, with matching wood bedroom furniture, brand new bathroom with white gleaming accessories, beautiful shower curtain, a microwave and fridge, with bedroom furniture to match the bedroom set, all in warm, beautiful wood, and beautiful bed linens, I have stayed, stayed and stayed. THIS IS NOT YOUR PARENTS' MOTEL. This is the NOW and beautifully put together!The Innkeeper Manager, a gentle soft spoken person, attends to his guests' needs constantly. Although the Inn has been remodeled, you see him daily checking various spots of the Inn to make sure the paint is OK, things are in good order. He has a full-time all around handy helper who is busily at work.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I was depressed having just buried my only relative in the world when I decided I did not want to go back to the apartment I shared with my now deceased brother. So I wondered along Biscayne Boulevard and found the Sun'nSurf Knights Inn by happenstance. Remember the film classic "The Man who came to Dinner" (who stayed and stayed and stayed?) Well, that was me: I only planned on staying a couple of days until I collected my senses, but having found this space: all rooms have been recently remodeled, with matching wood bedroom furniture, brand new bathroom with white gleaming accessories, beautiful shower curtain, a microwave and fridge, with bedroom furniture to match the bedroom set, all in warm, beautiful wood, and beautiful bed linens, I have stayed, stayed and stayed. THIS IS NOT YOUR PARENTS' MOTEL. This is the NOW and beautifully put together!The Innkeeper Manager, a gentle soft spoken person, attends to his guests' needs constantly. Although the Inn has been remodeled, you see him daily checking various spots of the Inn to make sure the paint is OK, things are in good order. He has a full-time all around handy helper who is busily at work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r250328014-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>250328014</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Too old and too pricey, not worth the money</t>
+  </si>
+  <si>
+    <t>This motel is too old and too pricey and clearly not worth the money. although i think no accomodation at all in Miami is worth the money in high season, as all are overpriced.Beds were really too old, mattrasses were too soft. Even no coffee making facilities in room. The very small soaps provided were worthless and bad quality. Safe parking was provided on the site as gate was closed. Breakfast was OK, for a Knights Inn, although very small breakfast room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r223954944-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>223954944</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Great for a night or two</t>
+  </si>
+  <si>
+    <t>Great job up grading this place. Not much to look on the out side. but room and beds are nice. Would be 5 stars if pool was open. Had issue with room issue was fixed right away. Staff seemed really helpful.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r220370296-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>220370296</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r208065700-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>208065700</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Exactly what my wife and family needed, a " Piece of Haven on Earth".</t>
+  </si>
+  <si>
+    <t>Hello my name is Raul, my home at this time is under rennovation. I had to find a place quick, and the first that came to my mind was Knights Inn centrally located in North Miami Beach. Why? Well simply because of their friendly staff, gated parking, unlimitted Wi-Fi, continental Breakfast, Nice room rated that not even "The price is right, could match". To my surprise the hotel has been renovated and under new management and I take my Hat off for it's GM Mrs. Banny in taking this beutiful property to the next level. I personally have been in the Hospitality Industry for over 15 years and what this small group of staff do everyday only one word can describe it "Magical" Thank you and enjoy your futer stay :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Hello my name is Raul, my home at this time is under rennovation. I had to find a place quick, and the first that came to my mind was Knights Inn centrally located in North Miami Beach. Why? Well simply because of their friendly staff, gated parking, unlimitted Wi-Fi, continental Breakfast, Nice room rated that not even "The price is right, could match". To my surprise the hotel has been renovated and under new management and I take my Hat off for it's GM Mrs. Banny in taking this beutiful property to the next level. I personally have been in the Hospitality Industry for over 15 years and what this small group of staff do everyday only one word can describe it "Magical" Thank you and enjoy your futer stay :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r207613338-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>207613338</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Great Example of Good Hotel and Good Staff</t>
+  </si>
+  <si>
+    <t>The front desk has been incredibly nice and helpful and was very helpful in advice on what to do in the city. Parking is adequate. Hotel was very clean as well as the room. The breakfast was better than what I expected. Though we didn't spend too much time in the hotel, other than sleeping but it left a great impression on us! Our sheets, towels and surfaces of desk, counter and bathroom were all regularly cleaned during our stay.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r207118885-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>207118885</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Surprising Place</t>
+  </si>
+  <si>
+    <t>We looked for a simple motel to stay another night in Miami on our Florida road trip and came up with this by the google hotel finder search. It's marked as a 1 star hotel, but we have been very surprised about how nice, clean and very friendly this place is. What we liked very much was the safety of this place with all the cameras and stuff, even on the parking spaces since we were driving a Camaro. Even though the breakfast room was small, it was very nice furnished and one of the best continental breakfasts we had on our whole trip from Atlanta in motels of this price category (real orange juice :D!) up to 3 star hotels. The pool was still closed when we arrived, but they said they are about to open it in a short while, for us it didn't matter because we looked only for sth to sleep. The King bed was very comfortable and clean, so we had nothing to complain. Full recommendation!MoreShow less</t>
+  </si>
+  <si>
+    <t>We looked for a simple motel to stay another night in Miami on our Florida road trip and came up with this by the google hotel finder search. It's marked as a 1 star hotel, but we have been very surprised about how nice, clean and very friendly this place is. What we liked very much was the safety of this place with all the cameras and stuff, even on the parking spaces since we were driving a Camaro. Even though the breakfast room was small, it was very nice furnished and one of the best continental breakfasts we had on our whole trip from Atlanta in motels of this price category (real orange juice :D!) up to 3 star hotels. The pool was still closed when we arrived, but they said they are about to open it in a short while, for us it didn't matter because we looked only for sth to sleep. The King bed was very comfortable and clean, so we had nothing to complain. Full recommendation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r206241935-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>206241935</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Apparently this property was allowed to deteriorate for quite some time and the new management has quite a task in front of her to try to bring this small motel up to "average". It appears that she's trying hard and, obviously, has made some improvements but there's still a way to go. I suppose that compared to other motels in this price range, this one compares favorably and has a location where it looks like it will benefit from the construction of a new mall a short distance away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Banny P, General Manager at Sun N Surf Inn, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Apparently this property was allowed to deteriorate for quite some time and the new management has quite a task in front of her to try to bring this small motel up to "average". It appears that she's trying hard and, obviously, has made some improvements but there's still a way to go. I suppose that compared to other motels in this price range, this one compares favorably and has a location where it looks like it will benefit from the construction of a new mall a short distance away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r202639174-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>202639174</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Worst stay ever!</t>
+  </si>
+  <si>
+    <t>Not worth the money. Better off paying more, you get what you pay for. First of all the rooms are semi decent but can you say bedbugs. Second the type of people who stayed there was something else every hour I saw New people come in And out it made the motel look like a trap house.. I couldn't wait to check out that I left before 11am. Never ever going to stay here again like I said you get what you pay for. The only thing nice about the place was the Spanish lady in the afternoon well polite and well spoken. But this place is a NO NO. CAUTION if you dareMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Mina P, Manager at Sun N Surf Inn, responded to this reviewResponded April 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2014</t>
+  </si>
+  <si>
+    <t>Not worth the money. Better off paying more, you get what you pay for. First of all the rooms are semi decent but can you say bedbugs. Second the type of people who stayed there was something else every hour I saw New people come in And out it made the motel look like a trap house.. I couldn't wait to check out that I left before 11am. Never ever going to stay here again like I said you get what you pay for. The only thing nice about the place was the Spanish lady in the afternoon well polite and well spoken. But this place is a NO NO. CAUTION if you dareMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d2493674-r196792534-Sun_N_Surf_Inn-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>196792534</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Nice change</t>
+  </si>
+  <si>
+    <t>This hotel has a great location for uptown Miami right on Biscayne blvd . Hotel has under gone major changes.I have been coming to this motel almost every year, the new management has brought this place up remarkably, Lobby and breakfast areas designed very tastefully. felt warm, cozy and cleanGood choices for breakfast. including fresh fruits, whole wheat breads,least but not least sliced almonds and cranberries for cereals!!!!Staff very friendly and cooperative. of course the prices have gone up than before, but its worth paying for. Rooms and beds comfortable and clean gated assess for car entry felt safe during the night.I would certainly choose this hotel for my next visitMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This hotel has a great location for uptown Miami right on Biscayne blvd . Hotel has under gone major changes.I have been coming to this motel almost every year, the new management has brought this place up remarkably, Lobby and breakfast areas designed very tastefully. felt warm, cozy and cleanGood choices for breakfast. including fresh fruits, whole wheat breads,least but not least sliced almonds and cranberries for cereals!!!!Staff very friendly and cooperative. of course the prices have gone up than before, but its worth paying for. Rooms and beds comfortable and clean gated assess for car entry felt safe during the night.I would certainly choose this hotel for my next visitMore</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +535,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Miami-Hotels-Sun-And-Surf-Inn.h7290586.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,37 +908,1249 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>48401</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>135</v>
+      </c>
+      <c r="X18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -573,79 +2172,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>48401</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
